--- a/HRMS.UI/wwwroot/SampleTemplates/MonthlyDeductionTemplate1.xlsx
+++ b/HRMS.UI/wwwroot/SampleTemplates/MonthlyDeductionTemplate1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Alpha_Emp_code</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>GroupMedical</t>
+  </si>
+  <si>
+    <t>Loan</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -113,6 +116,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -404,7 +408,7 @@
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -435,8 +439,11 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>10678</v>
       </c>
@@ -467,8 +474,11 @@
       <c r="J2" s="2">
         <v>800</v>
       </c>
+      <c r="K2" s="2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>10679</v>
       </c>
@@ -498,9 +508,13 @@
       </c>
       <c r="J3" s="2">
         <v>750</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HRMS.UI/wwwroot/SampleTemplates/MonthlyDeductionTemplate1.xlsx
+++ b/HRMS.UI/wwwroot/SampleTemplates/MonthlyDeductionTemplate1.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717C6BD0-AFE8-4A72-ACEC-4570862FF543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Alpha_Emp_code</t>
   </si>
@@ -57,12 +58,15 @@
   </si>
   <si>
     <t>Loan</t>
+  </si>
+  <si>
+    <t>OtherDeduction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +120,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,19 +402,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -442,13 +454,16 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10678</v>
       </c>
       <c r="B2" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>2025</v>
@@ -477,13 +492,16 @@
       <c r="K2" s="2">
         <v>1000</v>
       </c>
+      <c r="L2" s="2">
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10679</v>
       </c>
       <c r="B3" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>2025</v>
@@ -511,6 +529,9 @@
       </c>
       <c r="K3" s="2">
         <v>1000</v>
+      </c>
+      <c r="L3" s="2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
